--- a/3_Implementation/src/jasha1th.xlsx
+++ b/3_Implementation/src/jasha1th.xlsx
@@ -414,14 +414,150 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>PS_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>99003766</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Display_Name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jayasimha Reddy Ganapuram</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Official Email Address</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>jayasimha.ganapuram@ltts.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>present Address</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marriot Hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Office Address</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Manyata Tech Park</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room_ No</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Adhar card no</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pancard</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JHK8JHK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BANK</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ICIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LOCATION</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BANGALORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
